--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -314,7 +314,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,28 +338,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,17 +397,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -395,6 +428,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -403,63 +459,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,23 +480,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -515,103 +508,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,60 +670,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -684,18 +677,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,11 +690,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,6 +729,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -753,6 +749,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,183 +781,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1284,7 +1265,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1332,8 +1313,6 @@
       <c r="D2" s="1">
         <v>44628</v>
       </c>
-      <c r="E2"/>
-      <c r="F2"/>
       <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1761,8 +1740,11 @@
       <c r="B28" t="s">
         <v>63</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>20</v>
+      <c r="C28" s="1">
+        <v>44686</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:7">

--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -309,9 +309,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -338,6 +338,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -345,9 +374,87 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -360,10 +467,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -373,113 +480,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -508,175 +508,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,30 +687,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -732,8 +708,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,6 +746,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -763,40 +787,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -805,133 +805,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1263,9 +1263,9 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1743,8 +1743,11 @@
       <c r="C28" s="1">
         <v>44686</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>25</v>
+      <c r="D28" s="1">
+        <v>44687</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:7">

--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -309,8 +309,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -344,8 +344,123 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,122 +475,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,37 +508,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,31 +646,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,97 +670,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,6 +687,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -705,26 +720,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,8 +761,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -762,28 +779,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,10 +793,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -805,133 +805,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1265,7 +1265,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1845,8 +1845,11 @@
       <c r="B37" t="s">
         <v>81</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>20</v>
+      <c r="C37" s="1">
+        <v>44688</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:7">

--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="13320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
   <si>
     <t>组件名称</t>
   </si>
@@ -266,6 +266,12 @@
   </si>
   <si>
     <t>气泡弹出框</t>
+  </si>
+  <si>
+    <t>BsPopper</t>
+  </si>
+  <si>
+    <t>气泡组件（内部使用）</t>
   </si>
   <si>
     <t>BsPopConfirm</t>
@@ -309,10 +315,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -338,7 +344,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,14 +450,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,113 +486,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -508,13 +514,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,7 +598,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,133 +652,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,6 +693,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -705,41 +744,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,168 +779,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -944,54 +950,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1258,20 +1264,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
   <cols>
     <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="3" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="20.0892857142857" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="17.375" customWidth="1"/>
@@ -1870,8 +1877,11 @@
       <c r="B39" t="s">
         <v>85</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>20</v>
+      <c r="C39" s="1">
+        <v>44688</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1929,8 +1939,19 @@
         <v>20</v>
       </c>
     </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13320"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="98">
   <si>
     <t>组件名称</t>
   </si>
@@ -315,10 +315,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -343,6 +343,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -350,8 +365,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,6 +397,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,6 +418,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -380,11 +448,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -395,97 +486,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -514,31 +514,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,31 +640,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,97 +670,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,6 +693,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -711,11 +720,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,6 +755,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,30 +785,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -778,166 +793,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -950,54 +950,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1264,20 +1264,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="20.0892857142857" customWidth="1"/>
+    <col min="2" max="2" width="20.0916666666667" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
@@ -1855,8 +1855,11 @@
       <c r="C37" s="1">
         <v>44688</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>25</v>
+      <c r="D37" s="1">
+        <v>44693</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1880,8 +1883,11 @@
       <c r="C39" s="1">
         <v>44688</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>25</v>
+      <c r="D39" s="1">
+        <v>44693</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:7">

--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="13320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
   <si>
     <t>组件名称</t>
   </si>
@@ -315,9 +315,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -343,6 +343,118 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -351,6 +463,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -358,98 +471,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,30 +486,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -514,61 +514,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,109 +658,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,37 +700,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,11 +738,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,162 +793,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -950,54 +950,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1264,20 +1264,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
   <cols>
     <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="20.0916666666667" customWidth="1"/>
+    <col min="2" max="2" width="20.0892857142857" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
@@ -1764,8 +1764,11 @@
       <c r="B29" t="s">
         <v>65</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>20</v>
+      <c r="C29" s="1">
+        <v>44695</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:7">

--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13320"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="100">
   <si>
     <t>组件名称</t>
   </si>
@@ -200,6 +200,12 @@
   </si>
   <si>
     <t>日期时间选择框</t>
+  </si>
+  <si>
+    <t>BsRelativeTime</t>
+  </si>
+  <si>
+    <t>相对时间</t>
   </si>
   <si>
     <t>BsInputNumber</t>
@@ -315,10 +321,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -343,8 +349,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,45 +448,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,32 +462,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -448,21 +478,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,19 +486,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -514,31 +520,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,139 +682,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,44 +702,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,6 +749,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -778,166 +799,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -950,54 +956,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1264,20 +1270,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="20.0892857142857" customWidth="1"/>
+    <col min="2" max="2" width="20.0916666666667" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
@@ -1747,14 +1753,10 @@
       <c r="B28" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="1">
-        <v>44686</v>
-      </c>
-      <c r="D28" s="1">
-        <v>44687</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>9</v>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="G28" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1765,10 +1767,13 @@
         <v>65</v>
       </c>
       <c r="C29" s="1">
-        <v>44695</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>25</v>
+        <v>44686</v>
+      </c>
+      <c r="D29" s="1">
+        <v>44687</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1778,8 +1783,11 @@
       <c r="B30" t="s">
         <v>67</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>20</v>
+      <c r="C30" s="1">
+        <v>44695</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1855,14 +1863,8 @@
       <c r="B37" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="1">
-        <v>44688</v>
-      </c>
-      <c r="D37" s="1">
-        <v>44693</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>9</v>
+      <c r="G37" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1872,8 +1874,14 @@
       <c r="B38" t="s">
         <v>83</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>20</v>
+      <c r="C38" s="1">
+        <v>44688</v>
+      </c>
+      <c r="D38" s="1">
+        <v>44693</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1883,14 +1891,8 @@
       <c r="B39" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="1">
-        <v>44688</v>
-      </c>
-      <c r="D39" s="1">
-        <v>44693</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>9</v>
+      <c r="G39" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1900,8 +1902,14 @@
       <c r="B40" t="s">
         <v>87</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>20</v>
+      <c r="C40" s="1">
+        <v>44688</v>
+      </c>
+      <c r="D40" s="1">
+        <v>44693</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1956,6 +1964,17 @@
         <v>97</v>
       </c>
       <c r="G45" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" t="s">
+        <v>99</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>20</v>
       </c>
     </row>

--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="13320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
   <si>
     <t>组件名称</t>
   </si>
@@ -321,10 +321,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -346,6 +346,135 @@
       <color theme="0" tint="-0.15"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -358,136 +487,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,19 +520,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,7 +628,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,139 +688,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,47 +702,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,8 +714,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,11 +744,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,151 +769,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -956,54 +956,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1270,20 +1270,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
   <cols>
     <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="20.0916666666667" customWidth="1"/>
+    <col min="2" max="2" width="20.0892857142857" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
@@ -1786,8 +1786,11 @@
       <c r="C30" s="1">
         <v>44695</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>25</v>
+      <c r="D30" s="1">
+        <v>44703</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:7">

--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13320"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="100">
   <si>
     <t>组件名称</t>
   </si>
@@ -323,8 +323,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -350,7 +350,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,6 +373,43 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,25 +423,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -402,16 +463,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,13 +478,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,53 +487,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,175 +520,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,11 +702,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,17 +735,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,6 +752,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,181 +799,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -956,54 +956,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1270,20 +1270,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="20.0892857142857" customWidth="1"/>
+    <col min="2" max="2" width="20.0916666666667" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
@@ -1437,6 +1437,12 @@
       <c r="D8" s="1">
         <v>44634</v>
       </c>
+      <c r="E8" s="1">
+        <v>44711</v>
+      </c>
+      <c r="F8" s="1">
+        <v>44712</v>
+      </c>
       <c r="G8" s="2" t="s">
         <v>9</v>
       </c>

--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -321,9 +321,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -349,6 +349,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -356,10 +401,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -372,14 +473,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,107 +492,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -520,49 +520,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,121 +688,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,17 +702,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,15 +739,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,16 +776,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -791,11 +793,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,10 +805,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -817,36 +817,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -862,88 +862,88 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1277,7 +1277,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1400,6 +1400,12 @@
       <c r="D6" s="1">
         <v>44633</v>
       </c>
+      <c r="E6" s="1">
+        <v>44712</v>
+      </c>
+      <c r="F6" s="1">
+        <v>44712</v>
+      </c>
       <c r="G6" s="2" t="s">
         <v>9</v>
       </c>

--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -349,6 +349,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -357,8 +399,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,126 +486,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -520,13 +520,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,19 +622,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,127 +682,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,28 +702,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,6 +722,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,9 +791,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,10 +805,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -817,7 +817,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -826,30 +826,30 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -862,88 +862,88 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1275,9 +1275,9 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1856,6 +1856,9 @@
       <c r="B35" t="s">
         <v>77</v>
       </c>
+      <c r="C35" s="1">
+        <v>44718</v>
+      </c>
       <c r="G35" s="3" t="s">
         <v>20</v>
       </c>

--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -321,9 +321,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -357,7 +357,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,23 +378,88 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -399,61 +471,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -462,25 +479,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,61 +520,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,109 +688,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,11 +702,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,50 +732,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,11 +769,33 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,10 +805,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -817,18 +817,18 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -838,13 +838,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -856,94 +853,97 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1275,9 +1275,9 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1859,8 +1859,11 @@
       <c r="C35" s="1">
         <v>44718</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>20</v>
+      <c r="D35" s="1">
+        <v>44721</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1881,8 +1884,14 @@
       <c r="B37" t="s">
         <v>81</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>20</v>
+      <c r="C37" s="1">
+        <v>44722</v>
+      </c>
+      <c r="D37" s="1">
+        <v>44722</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:7">

--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -321,10 +321,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -350,6 +350,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -364,7 +378,77 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,8 +461,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,107 +492,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -520,19 +520,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,151 +688,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,21 +699,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -728,26 +713,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,6 +741,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -793,9 +791,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,10 +805,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -817,133 +817,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1277,7 +1277,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1918,8 +1918,14 @@
       <c r="B39" t="s">
         <v>85</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>20</v>
+      <c r="C39" s="1">
+        <v>44725</v>
+      </c>
+      <c r="D39" s="1">
+        <v>44725</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:7">

--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="102">
   <si>
     <t>组件名称</t>
   </si>
@@ -302,6 +302,12 @@
   </si>
   <si>
     <t>加载</t>
+  </si>
+  <si>
+    <t>BsSpinner</t>
+  </si>
+  <si>
+    <t>旋转器</t>
   </si>
   <si>
     <t>BsMediaObject</t>
@@ -321,10 +327,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -350,14 +356,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,14 +378,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,6 +401,60 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,6 +476,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -414,84 +498,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -520,175 +526,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,26 +723,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,8 +756,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,17 +771,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,16 +790,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -817,133 +823,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1272,12 +1278,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
+      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1996,8 +2002,14 @@
       <c r="B45" t="s">
         <v>97</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>20</v>
+      <c r="C45" s="1">
+        <v>44725</v>
+      </c>
+      <c r="D45" s="1">
+        <v>44725</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2008,6 +2020,17 @@
         <v>99</v>
       </c>
       <c r="G46" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" t="s">
+        <v>101</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>20</v>
       </c>
     </row>

--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -328,9 +328,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -352,13 +352,6 @@
       <color theme="0" tint="-0.15"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -371,7 +364,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,6 +372,120 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,113 +498,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -526,13 +526,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,7 +586,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,13 +646,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,19 +670,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,103 +694,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,6 +705,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -723,36 +738,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -764,9 +749,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,19 +761,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,16 +781,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -823,133 +823,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1283,7 +1283,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
+      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1958,8 +1958,14 @@
       <c r="B41" t="s">
         <v>89</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>20</v>
+      <c r="C41" s="1">
+        <v>44725</v>
+      </c>
+      <c r="D41" s="1">
+        <v>44725</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:7">

--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="100">
   <si>
     <t>组件名称</t>
   </si>
@@ -308,12 +308,6 @@
   </si>
   <si>
     <t>旋转器</t>
-  </si>
-  <si>
-    <t>BsMediaObject</t>
-  </si>
-  <si>
-    <t>媒体对象</t>
   </si>
   <si>
     <t>BsConfigProvider</t>
@@ -327,10 +321,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -352,6 +346,127 @@
       <color theme="0" tint="-0.15"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -364,97 +479,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,37 +492,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -526,175 +520,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,6 +699,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -723,17 +732,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,17 +751,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -791,17 +789,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,10 +805,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -823,133 +817,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1278,12 +1272,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2029,17 +2023,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>100</v>
-      </c>
-      <c r="B47" t="s">
-        <v>101</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -321,9 +321,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -350,14 +350,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,10 +370,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -385,17 +408,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -407,8 +424,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,70 +480,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,19 +520,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,151 +688,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,6 +717,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -728,6 +746,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,48 +791,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -805,10 +805,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -817,133 +817,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1275,9 +1275,9 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1823,8 +1823,14 @@
       <c r="B32" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>20</v>
+      <c r="C32" s="1">
+        <v>44725</v>
+      </c>
+      <c r="D32" s="1">
+        <v>44725</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:7">

--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -321,10 +321,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -349,6 +349,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -356,8 +386,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,17 +424,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -400,61 +463,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -478,14 +486,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -520,31 +520,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,7 +610,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,127 +688,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,6 +699,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -722,30 +757,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,27 +799,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -817,34 +817,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -856,94 +856,94 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1827,10 +1827,10 @@
         <v>44725</v>
       </c>
       <c r="D32" s="1">
-        <v>44725</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>25</v>
+        <v>44726</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:7">

--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -321,10 +321,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -346,6 +346,88 @@
       <color theme="0" tint="-0.15"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -364,15 +446,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -380,9 +463,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -394,90 +485,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -485,13 +492,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -520,6 +520,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -532,7 +598,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,43 +670,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,103 +682,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,17 +702,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,10 +722,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -752,20 +744,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,6 +770,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,10 +805,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -817,133 +817,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1275,9 +1275,9 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1840,8 +1840,11 @@
       <c r="B33" t="s">
         <v>73</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>20</v>
+      <c r="C33" s="1">
+        <v>44728</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:7">

--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
   <si>
     <t>组件名称</t>
   </si>
@@ -321,10 +321,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -350,16 +350,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -372,12 +396,58 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -387,9 +457,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -402,38 +472,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,29 +480,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,22 +492,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -520,25 +520,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,145 +676,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,30 +716,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,17 +750,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -799,151 +764,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -956,54 +956,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1270,7 +1270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:K46"/>
   <sheetViews>
@@ -1280,10 +1280,10 @@
       <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
   <cols>
     <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="20.0916666666667" customWidth="1"/>
+    <col min="2" max="2" width="20.0892857142857" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
@@ -1843,8 +1843,11 @@
       <c r="C33" s="1">
         <v>44728</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>25</v>
+      <c r="D33" s="1">
+        <v>44745</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:7">

--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -322,9 +322,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -350,14 +350,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,6 +379,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -379,6 +395,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -396,7 +419,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,13 +478,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -425,73 +486,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -520,31 +520,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,139 +682,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,69 +699,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -782,11 +719,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,151 +734,216 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1275,9 +1275,9 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
@@ -1857,8 +1857,11 @@
       <c r="B34" t="s">
         <v>75</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>20</v>
+      <c r="C34" s="1">
+        <v>44752</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:7">

--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102">
   <si>
     <t>组件名称</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>选择器</t>
+  </si>
+  <si>
+    <t>2022/3/23、2022-07-21</t>
+  </si>
+  <si>
+    <t>2022/3/26、2022-07-28</t>
   </si>
   <si>
     <t>BsForm</t>
@@ -322,9 +328,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -350,14 +356,112 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,40 +477,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -418,28 +491,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,51 +498,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -520,55 +526,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,115 +694,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,17 +708,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,11 +750,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,17 +780,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -799,130 +794,141 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -931,19 +937,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1275,9 +1281,9 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
@@ -1486,11 +1492,11 @@
       <c r="D10" s="1">
         <v>44635</v>
       </c>
-      <c r="E10" s="1">
-        <v>44643</v>
-      </c>
-      <c r="F10" s="1">
-        <v>44646</v>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>9</v>
@@ -1498,10 +1504,10 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1">
         <v>44638</v>
@@ -1518,10 +1524,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1">
         <v>44650</v>
@@ -1535,10 +1541,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1">
         <v>44650</v>
@@ -1552,10 +1558,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1">
         <v>44652</v>
@@ -1569,10 +1575,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1">
         <v>44657</v>
@@ -1586,10 +1592,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1">
         <v>44662</v>
@@ -1603,10 +1609,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1">
         <v>44662</v>
@@ -1620,10 +1626,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1">
         <v>44664</v>
@@ -1637,10 +1643,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1">
         <v>44669</v>
@@ -1654,10 +1660,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1">
         <v>44675</v>
@@ -1671,10 +1677,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C21" s="1">
         <v>44684</v>
@@ -1688,10 +1694,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C22" s="1">
         <v>44686</v>
@@ -1705,10 +1711,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>20</v>
@@ -1716,10 +1722,10 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>20</v>
@@ -1727,10 +1733,10 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>20</v>
@@ -1738,21 +1744,24 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>20</v>
+        <v>61</v>
+      </c>
+      <c r="C26" s="1">
+        <v>44772</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>20</v>
@@ -1760,10 +1769,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1773,10 +1782,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C29" s="1">
         <v>44686</v>
@@ -1790,10 +1799,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C30" s="1">
         <v>44695</v>
@@ -1807,10 +1816,10 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>20</v>
@@ -1818,10 +1827,10 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C32" s="1">
         <v>44725</v>
@@ -1835,10 +1844,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C33" s="1">
         <v>44728</v>
@@ -1852,24 +1861,27 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C34" s="1">
         <v>44752</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>25</v>
+      <c r="D34" s="1">
+        <v>44760</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C35" s="1">
         <v>44718</v>
@@ -1883,10 +1895,10 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>20</v>
@@ -1894,10 +1906,10 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C37" s="1">
         <v>44722</v>
@@ -1911,10 +1923,10 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C38" s="1">
         <v>44688</v>
@@ -1928,10 +1940,10 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C39" s="1">
         <v>44725</v>
@@ -1945,10 +1957,10 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C40" s="1">
         <v>44688</v>
@@ -1962,10 +1974,10 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1">
         <v>44725</v>
@@ -1979,10 +1991,10 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>20</v>
@@ -1990,10 +2002,10 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>20</v>
@@ -2001,10 +2013,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>20</v>
@@ -2012,10 +2024,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C45" s="1">
         <v>44725</v>
@@ -2029,10 +2041,10 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>20</v>

--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12680"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="102">
   <si>
     <t>组件名称</t>
   </si>
@@ -327,10 +327,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -356,21 +356,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,6 +407,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -392,54 +446,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,38 +471,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,6 +484,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -526,19 +526,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,151 +658,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,29 +708,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,17 +738,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,17 +786,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -808,148 +808,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -962,54 +962,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1276,20 +1276,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="20.0892857142857" customWidth="1"/>
+    <col min="2" max="2" width="20.0916666666667" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
@@ -1752,8 +1752,11 @@
       <c r="C26" s="1">
         <v>44772</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>25</v>
+      <c r="D26" s="1">
+        <v>44775</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:7">

--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -1283,7 +1283,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1738,8 +1738,11 @@
       <c r="B25" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>20</v>
+      <c r="C25" s="1">
+        <v>44776</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:7">

--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -1281,9 +1281,9 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2013,8 +2013,11 @@
       <c r="B43" t="s">
         <v>95</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>20</v>
+      <c r="C43" s="1">
+        <v>44799</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:7">

--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -2016,8 +2016,11 @@
       <c r="C43" s="1">
         <v>44799</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>25</v>
+      <c r="D43" s="1">
+        <v>44803</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:7">

--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -100,10 +100,12 @@
     <t>选择器</t>
   </si>
   <si>
-    <t>2022/3/23、2022-07-21</t>
-  </si>
-  <si>
-    <t>2022/3/26、2022-07-28</t>
+    <t>2022/3/23
+2022/7/21</t>
+  </si>
+  <si>
+    <t>2022/3/26
+2022/07/28</t>
   </si>
   <si>
     <t>BsForm</t>
@@ -953,10 +955,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -1281,9 +1286,9 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1432,7 +1437,7 @@
       <c r="G7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1459,7 +1464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" ht="15" customHeight="1" spans="1:11">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1475,11 +1480,11 @@
       <c r="G9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" ht="30" customHeight="1" spans="1:7">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1492,10 +1497,10 @@
       <c r="D10" s="1">
         <v>44635</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -1716,7 +1721,7 @@
       <c r="B23" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1727,7 +1732,7 @@
       <c r="B24" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1741,7 +1746,7 @@
       <c r="C25" s="1">
         <v>44776</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1769,7 +1774,7 @@
       <c r="B27" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1780,10 +1785,14 @@
       <c r="B28" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="G28" s="3" t="s">
-        <v>20</v>
+      <c r="C28" s="1">
+        <v>44803</v>
+      </c>
+      <c r="D28" s="1">
+        <v>44803</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1827,7 +1836,7 @@
       <c r="B31" t="s">
         <v>71</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1906,7 +1915,7 @@
       <c r="B36" t="s">
         <v>81</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2002,7 +2011,7 @@
       <c r="B42" t="s">
         <v>93</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2030,7 +2039,7 @@
       <c r="B44" t="s">
         <v>97</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G44" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2058,7 +2067,7 @@
       <c r="B46" t="s">
         <v>101</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G46" s="4" t="s">
         <v>20</v>
       </c>
     </row>

--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -1286,9 +1286,9 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2039,8 +2039,11 @@
       <c r="B44" t="s">
         <v>97</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>20</v>
+      <c r="C44" s="1">
+        <v>44804</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:7">

--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="104">
   <si>
     <t>组件名称</t>
   </si>
@@ -204,10 +204,16 @@
     <t>时间选择框</t>
   </si>
   <si>
-    <t>BsDateTimePicker</t>
-  </si>
-  <si>
-    <t>日期时间选择框</t>
+    <t>BsTimeRangePicker</t>
+  </si>
+  <si>
+    <t>时间范围选择框</t>
+  </si>
+  <si>
+    <t>BsDateRangePicker</t>
+  </si>
+  <si>
+    <t>日期范围选择框</t>
   </si>
   <si>
     <t>BsRelativeTime</t>
@@ -1283,12 +1289,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
+      <selection pane="bottomLeft" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1785,14 +1791,10 @@
       <c r="B28" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="1">
-        <v>44803</v>
-      </c>
-      <c r="D28" s="1">
-        <v>44803</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>9</v>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="G28" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1803,10 +1805,10 @@
         <v>67</v>
       </c>
       <c r="C29" s="1">
-        <v>44686</v>
+        <v>44803</v>
       </c>
       <c r="D29" s="1">
-        <v>44687</v>
+        <v>44803</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>9</v>
@@ -1820,10 +1822,10 @@
         <v>69</v>
       </c>
       <c r="C30" s="1">
-        <v>44695</v>
+        <v>44686</v>
       </c>
       <c r="D30" s="1">
-        <v>44703</v>
+        <v>44687</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>9</v>
@@ -1836,8 +1838,14 @@
       <c r="B31" t="s">
         <v>71</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>20</v>
+      <c r="C31" s="1">
+        <v>44695</v>
+      </c>
+      <c r="D31" s="1">
+        <v>44703</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1847,14 +1855,8 @@
       <c r="B32" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="1">
-        <v>44725</v>
-      </c>
-      <c r="D32" s="1">
-        <v>44726</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>9</v>
+      <c r="G32" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1865,10 +1867,10 @@
         <v>75</v>
       </c>
       <c r="C33" s="1">
-        <v>44728</v>
+        <v>44725</v>
       </c>
       <c r="D33" s="1">
-        <v>44745</v>
+        <v>44726</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>9</v>
@@ -1882,10 +1884,10 @@
         <v>77</v>
       </c>
       <c r="C34" s="1">
-        <v>44752</v>
+        <v>44728</v>
       </c>
       <c r="D34" s="1">
-        <v>44760</v>
+        <v>44745</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>9</v>
@@ -1899,10 +1901,10 @@
         <v>79</v>
       </c>
       <c r="C35" s="1">
-        <v>44718</v>
+        <v>44752</v>
       </c>
       <c r="D35" s="1">
-        <v>44721</v>
+        <v>44760</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>9</v>
@@ -1915,8 +1917,14 @@
       <c r="B36" t="s">
         <v>81</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>20</v>
+      <c r="C36" s="1">
+        <v>44718</v>
+      </c>
+      <c r="D36" s="1">
+        <v>44721</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1926,14 +1934,8 @@
       <c r="B37" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="1">
-        <v>44722</v>
-      </c>
-      <c r="D37" s="1">
-        <v>44722</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>9</v>
+      <c r="G37" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1944,10 +1946,10 @@
         <v>85</v>
       </c>
       <c r="C38" s="1">
-        <v>44688</v>
+        <v>44722</v>
       </c>
       <c r="D38" s="1">
-        <v>44693</v>
+        <v>44722</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>9</v>
@@ -1961,10 +1963,10 @@
         <v>87</v>
       </c>
       <c r="C39" s="1">
-        <v>44725</v>
+        <v>44688</v>
       </c>
       <c r="D39" s="1">
-        <v>44725</v>
+        <v>44693</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>9</v>
@@ -1978,10 +1980,10 @@
         <v>89</v>
       </c>
       <c r="C40" s="1">
-        <v>44688</v>
+        <v>44725</v>
       </c>
       <c r="D40" s="1">
-        <v>44693</v>
+        <v>44725</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>9</v>
@@ -1995,10 +1997,10 @@
         <v>91</v>
       </c>
       <c r="C41" s="1">
-        <v>44725</v>
+        <v>44688</v>
       </c>
       <c r="D41" s="1">
-        <v>44725</v>
+        <v>44693</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>9</v>
@@ -2011,8 +2013,14 @@
       <c r="B42" t="s">
         <v>93</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>20</v>
+      <c r="C42" s="1">
+        <v>44725</v>
+      </c>
+      <c r="D42" s="1">
+        <v>44725</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2022,14 +2030,8 @@
       <c r="B43" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="1">
-        <v>44799</v>
-      </c>
-      <c r="D43" s="1">
-        <v>44803</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>9</v>
+      <c r="G43" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2040,10 +2042,13 @@
         <v>97</v>
       </c>
       <c r="C44" s="1">
-        <v>44804</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>25</v>
+        <v>44799</v>
+      </c>
+      <c r="D44" s="1">
+        <v>44803</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2054,10 +2059,10 @@
         <v>99</v>
       </c>
       <c r="C45" s="1">
-        <v>44725</v>
+        <v>44804</v>
       </c>
       <c r="D45" s="1">
-        <v>44725</v>
+        <v>44813</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>9</v>
@@ -2070,7 +2075,24 @@
       <c r="B46" t="s">
         <v>101</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="C46" s="1">
+        <v>44725</v>
+      </c>
+      <c r="D46" s="1">
+        <v>44725</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" t="s">
+        <v>103</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>20</v>
       </c>
     </row>

--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
   <si>
     <t>组件名称</t>
   </si>
@@ -106,6 +106,12 @@
   <si>
     <t>2022/3/26
 2022/07/28</t>
+  </si>
+  <si>
+    <t>BsInputTags</t>
+  </si>
+  <si>
+    <t>输入框标签组件</t>
   </si>
   <si>
     <t>BsForm</t>
@@ -335,10 +341,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -364,21 +370,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,11 +390,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -416,23 +422,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,39 +437,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,6 +465,53 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -534,13 +540,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,157 +702,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,17 +722,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,11 +755,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,6 +781,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,167 +814,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -973,54 +979,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1287,20 +1293,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I43" sqref="I43"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
   <cols>
     <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="20.0916666666667" customWidth="1"/>
+    <col min="2" max="2" width="20.0892857142857" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
@@ -1383,6 +1389,12 @@
       <c r="D4" s="1">
         <v>44632</v>
       </c>
+      <c r="E4" s="1">
+        <v>44814</v>
+      </c>
+      <c r="F4" s="1">
+        <v>44814</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1521,19 +1533,17 @@
         <v>31</v>
       </c>
       <c r="C11" s="1">
-        <v>44638</v>
+        <v>44814</v>
       </c>
       <c r="D11" s="1">
-        <v>44640</v>
+        <v>44815</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1541,12 +1551,15 @@
         <v>33</v>
       </c>
       <c r="C12" s="1">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="D12" s="1">
-        <v>44650</v>
+        <v>44640</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1575,10 +1588,10 @@
         <v>37</v>
       </c>
       <c r="C14" s="1">
-        <v>44652</v>
+        <v>44650</v>
       </c>
       <c r="D14" s="1">
-        <v>44652</v>
+        <v>44650</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>9</v>
@@ -1592,10 +1605,10 @@
         <v>39</v>
       </c>
       <c r="C15" s="1">
-        <v>44657</v>
+        <v>44652</v>
       </c>
       <c r="D15" s="1">
-        <v>44657</v>
+        <v>44652</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>9</v>
@@ -1609,10 +1622,10 @@
         <v>41</v>
       </c>
       <c r="C16" s="1">
-        <v>44662</v>
+        <v>44657</v>
       </c>
       <c r="D16" s="1">
-        <v>44662</v>
+        <v>44657</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>9</v>
@@ -1629,7 +1642,7 @@
         <v>44662</v>
       </c>
       <c r="D17" s="1">
-        <v>44663</v>
+        <v>44662</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>9</v>
@@ -1643,10 +1656,10 @@
         <v>45</v>
       </c>
       <c r="C18" s="1">
-        <v>44664</v>
+        <v>44662</v>
       </c>
       <c r="D18" s="1">
-        <v>44668</v>
+        <v>44663</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>9</v>
@@ -1660,10 +1673,10 @@
         <v>47</v>
       </c>
       <c r="C19" s="1">
-        <v>44669</v>
+        <v>44664</v>
       </c>
       <c r="D19" s="1">
-        <v>44672</v>
+        <v>44668</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>9</v>
@@ -1677,10 +1690,10 @@
         <v>49</v>
       </c>
       <c r="C20" s="1">
-        <v>44675</v>
+        <v>44669</v>
       </c>
       <c r="D20" s="1">
-        <v>44682</v>
+        <v>44672</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>9</v>
@@ -1694,10 +1707,10 @@
         <v>51</v>
       </c>
       <c r="C21" s="1">
-        <v>44684</v>
+        <v>44675</v>
       </c>
       <c r="D21" s="1">
-        <v>44684</v>
+        <v>44682</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>9</v>
@@ -1711,10 +1724,10 @@
         <v>53</v>
       </c>
       <c r="C22" s="1">
-        <v>44686</v>
+        <v>44684</v>
       </c>
       <c r="D22" s="1">
-        <v>44686</v>
+        <v>44684</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>9</v>
@@ -1724,11 +1737,17 @@
       <c r="A23" t="s">
         <v>54</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>20</v>
+      <c r="C23" s="1">
+        <v>44686</v>
+      </c>
+      <c r="D23" s="1">
+        <v>44686</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1749,11 +1768,8 @@
       <c r="B25" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="1">
-        <v>44776</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>25</v>
+      <c r="G25" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1764,13 +1780,10 @@
         <v>61</v>
       </c>
       <c r="C26" s="1">
-        <v>44772</v>
-      </c>
-      <c r="D26" s="1">
-        <v>44775</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>9</v>
+        <v>44776</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1780,8 +1793,14 @@
       <c r="B27" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>20</v>
+      <c r="C27" s="1">
+        <v>44772</v>
+      </c>
+      <c r="D27" s="1">
+        <v>44775</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1791,8 +1810,6 @@
       <c r="B28" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
       <c r="G28" s="4" t="s">
         <v>20</v>
       </c>
@@ -1804,14 +1821,10 @@
       <c r="B29" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="1">
-        <v>44803</v>
-      </c>
-      <c r="D29" s="1">
-        <v>44803</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>9</v>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="G29" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1822,10 +1835,10 @@
         <v>69</v>
       </c>
       <c r="C30" s="1">
-        <v>44686</v>
+        <v>44803</v>
       </c>
       <c r="D30" s="1">
-        <v>44687</v>
+        <v>44803</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>9</v>
@@ -1839,10 +1852,10 @@
         <v>71</v>
       </c>
       <c r="C31" s="1">
-        <v>44695</v>
+        <v>44686</v>
       </c>
       <c r="D31" s="1">
-        <v>44703</v>
+        <v>44687</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>9</v>
@@ -1855,8 +1868,14 @@
       <c r="B32" t="s">
         <v>73</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>20</v>
+      <c r="C32" s="1">
+        <v>44695</v>
+      </c>
+      <c r="D32" s="1">
+        <v>44703</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1866,14 +1885,8 @@
       <c r="B33" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="1">
-        <v>44725</v>
-      </c>
-      <c r="D33" s="1">
-        <v>44726</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>9</v>
+      <c r="G33" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1884,10 +1897,10 @@
         <v>77</v>
       </c>
       <c r="C34" s="1">
-        <v>44728</v>
+        <v>44725</v>
       </c>
       <c r="D34" s="1">
-        <v>44745</v>
+        <v>44726</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>9</v>
@@ -1901,10 +1914,10 @@
         <v>79</v>
       </c>
       <c r="C35" s="1">
-        <v>44752</v>
+        <v>44728</v>
       </c>
       <c r="D35" s="1">
-        <v>44760</v>
+        <v>44745</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>9</v>
@@ -1918,10 +1931,10 @@
         <v>81</v>
       </c>
       <c r="C36" s="1">
-        <v>44718</v>
+        <v>44752</v>
       </c>
       <c r="D36" s="1">
-        <v>44721</v>
+        <v>44760</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>9</v>
@@ -1934,8 +1947,14 @@
       <c r="B37" t="s">
         <v>83</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>20</v>
+      <c r="C37" s="1">
+        <v>44718</v>
+      </c>
+      <c r="D37" s="1">
+        <v>44721</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1945,14 +1964,8 @@
       <c r="B38" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="1">
-        <v>44722</v>
-      </c>
-      <c r="D38" s="1">
-        <v>44722</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>9</v>
+      <c r="G38" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1963,10 +1976,10 @@
         <v>87</v>
       </c>
       <c r="C39" s="1">
-        <v>44688</v>
+        <v>44722</v>
       </c>
       <c r="D39" s="1">
-        <v>44693</v>
+        <v>44722</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>9</v>
@@ -1980,10 +1993,10 @@
         <v>89</v>
       </c>
       <c r="C40" s="1">
-        <v>44725</v>
+        <v>44688</v>
       </c>
       <c r="D40" s="1">
-        <v>44725</v>
+        <v>44693</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>9</v>
@@ -1997,10 +2010,10 @@
         <v>91</v>
       </c>
       <c r="C41" s="1">
-        <v>44688</v>
+        <v>44725</v>
       </c>
       <c r="D41" s="1">
-        <v>44693</v>
+        <v>44725</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>9</v>
@@ -2014,10 +2027,10 @@
         <v>93</v>
       </c>
       <c r="C42" s="1">
-        <v>44725</v>
+        <v>44688</v>
       </c>
       <c r="D42" s="1">
-        <v>44725</v>
+        <v>44693</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>9</v>
@@ -2030,8 +2043,14 @@
       <c r="B43" t="s">
         <v>95</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>20</v>
+      <c r="C43" s="1">
+        <v>44725</v>
+      </c>
+      <c r="D43" s="1">
+        <v>44725</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2041,14 +2060,8 @@
       <c r="B44" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="1">
-        <v>44799</v>
-      </c>
-      <c r="D44" s="1">
-        <v>44803</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>9</v>
+      <c r="G44" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2059,10 +2072,10 @@
         <v>99</v>
       </c>
       <c r="C45" s="1">
-        <v>44804</v>
+        <v>44799</v>
       </c>
       <c r="D45" s="1">
-        <v>44813</v>
+        <v>44803</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>9</v>
@@ -2076,10 +2089,10 @@
         <v>101</v>
       </c>
       <c r="C46" s="1">
-        <v>44725</v>
+        <v>44804</v>
       </c>
       <c r="D46" s="1">
-        <v>44725</v>
+        <v>44813</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>9</v>
@@ -2092,7 +2105,24 @@
       <c r="B47" t="s">
         <v>103</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="C47" s="1">
+        <v>44725</v>
+      </c>
+      <c r="D47" s="1">
+        <v>44725</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" t="s">
+        <v>105</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>20</v>
       </c>
     </row>

--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12680"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="106">
   <si>
     <t>组件名称</t>
   </si>
@@ -341,10 +341,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -370,14 +370,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,18 +397,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -422,7 +422,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,8 +453,39 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,53 +512,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -540,175 +540,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,11 +722,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,17 +761,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,17 +781,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -814,156 +803,167 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -979,54 +979,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1293,20 +1293,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="20.0892857142857" customWidth="1"/>
+    <col min="2" max="2" width="20.0916666666667" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
@@ -1768,8 +1768,11 @@
       <c r="B25" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>20</v>
+      <c r="C25" s="1">
+        <v>44819</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:7">

--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1298,7 +1298,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
@@ -1771,8 +1771,11 @@
       <c r="C25" s="1">
         <v>44819</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>25</v>
+      <c r="D25" s="1">
+        <v>44826</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:7">

--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="108">
   <si>
     <t>组件名称</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>已完成</t>
+  </si>
+  <si>
+    <t>BsButtonGroup</t>
+  </si>
+  <si>
+    <t>按钮组</t>
   </si>
   <si>
     <t>BsDropdown</t>
@@ -1295,12 +1301,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1361,17 +1367,13 @@
         <v>11</v>
       </c>
       <c r="C3" s="1">
-        <v>44629</v>
+        <v>44826</v>
       </c>
       <c r="D3" s="1">
-        <v>44630</v>
-      </c>
-      <c r="E3" s="1">
-        <v>44673</v>
-      </c>
-      <c r="F3" s="1">
-        <v>44675</v>
-      </c>
+        <v>44826</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
       <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1384,16 +1386,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="1">
+        <v>44629</v>
+      </c>
+      <c r="D4" s="1">
         <v>44630</v>
       </c>
-      <c r="D4" s="1">
-        <v>44632</v>
-      </c>
       <c r="E4" s="1">
-        <v>44814</v>
+        <v>44673</v>
       </c>
       <c r="F4" s="1">
-        <v>44814</v>
+        <v>44675</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>9</v>
@@ -1407,10 +1409,16 @@
         <v>15</v>
       </c>
       <c r="C5" s="1">
-        <v>44632</v>
+        <v>44630</v>
       </c>
       <c r="D5" s="1">
         <v>44632</v>
+      </c>
+      <c r="E5" s="1">
+        <v>44814</v>
+      </c>
+      <c r="F5" s="1">
+        <v>44814</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>9</v>
@@ -1424,22 +1432,16 @@
         <v>17</v>
       </c>
       <c r="C6" s="1">
-        <v>44633</v>
+        <v>44632</v>
       </c>
       <c r="D6" s="1">
-        <v>44633</v>
-      </c>
-      <c r="E6" s="1">
-        <v>44712</v>
-      </c>
-      <c r="F6" s="1">
-        <v>44712</v>
+        <v>44632</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1452,37 +1454,37 @@
       <c r="D7" s="1">
         <v>44633</v>
       </c>
+      <c r="E7" s="1">
+        <v>44712</v>
+      </c>
+      <c r="F7" s="1">
+        <v>44712</v>
+      </c>
       <c r="G7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="4" t="s">
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1">
+        <v>44633</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44633</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1">
-        <v>44634</v>
-      </c>
-      <c r="D8" s="1">
-        <v>44634</v>
-      </c>
-      <c r="E8" s="1">
-        <v>44711</v>
-      </c>
-      <c r="F8" s="1">
-        <v>44712</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1" spans="1:11">
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1490,24 +1492,27 @@
         <v>24</v>
       </c>
       <c r="C9" s="1">
-        <v>44635</v>
+        <v>44634</v>
       </c>
       <c r="D9" s="1">
-        <v>44635</v>
+        <v>44634</v>
+      </c>
+      <c r="E9" s="1">
+        <v>44711</v>
+      </c>
+      <c r="F9" s="1">
+        <v>44712</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="5" t="s">
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:11">
+      <c r="A10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" ht="30" customHeight="1" spans="1:7">
-      <c r="A10" t="s">
+      <c r="B10" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C10" s="1">
         <v>44635</v>
@@ -1515,33 +1520,35 @@
       <c r="D10" s="1">
         <v>44635</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="G10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="1:7">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
+      <c r="C11" s="1">
+        <v>44635</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44635</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="1">
-        <v>44814</v>
-      </c>
-      <c r="D11" s="1">
-        <v>44815</v>
-      </c>
       <c r="G11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
@@ -1551,19 +1558,17 @@
         <v>33</v>
       </c>
       <c r="C12" s="1">
-        <v>44638</v>
+        <v>44814</v>
       </c>
       <c r="D12" s="1">
-        <v>44640</v>
+        <v>44815</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1571,12 +1576,15 @@
         <v>35</v>
       </c>
       <c r="C13" s="1">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="D13" s="1">
-        <v>44650</v>
+        <v>44640</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1605,10 +1613,10 @@
         <v>39</v>
       </c>
       <c r="C15" s="1">
-        <v>44652</v>
+        <v>44650</v>
       </c>
       <c r="D15" s="1">
-        <v>44652</v>
+        <v>44650</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>9</v>
@@ -1622,10 +1630,10 @@
         <v>41</v>
       </c>
       <c r="C16" s="1">
-        <v>44657</v>
+        <v>44652</v>
       </c>
       <c r="D16" s="1">
-        <v>44657</v>
+        <v>44652</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>9</v>
@@ -1639,10 +1647,10 @@
         <v>43</v>
       </c>
       <c r="C17" s="1">
-        <v>44662</v>
+        <v>44657</v>
       </c>
       <c r="D17" s="1">
-        <v>44662</v>
+        <v>44657</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>9</v>
@@ -1659,7 +1667,7 @@
         <v>44662</v>
       </c>
       <c r="D18" s="1">
-        <v>44663</v>
+        <v>44662</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>9</v>
@@ -1673,10 +1681,10 @@
         <v>47</v>
       </c>
       <c r="C19" s="1">
-        <v>44664</v>
+        <v>44662</v>
       </c>
       <c r="D19" s="1">
-        <v>44668</v>
+        <v>44663</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>9</v>
@@ -1690,10 +1698,10 @@
         <v>49</v>
       </c>
       <c r="C20" s="1">
-        <v>44669</v>
+        <v>44664</v>
       </c>
       <c r="D20" s="1">
-        <v>44672</v>
+        <v>44668</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>9</v>
@@ -1707,10 +1715,10 @@
         <v>51</v>
       </c>
       <c r="C21" s="1">
-        <v>44675</v>
+        <v>44669</v>
       </c>
       <c r="D21" s="1">
-        <v>44682</v>
+        <v>44672</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>9</v>
@@ -1724,10 +1732,10 @@
         <v>53</v>
       </c>
       <c r="C22" s="1">
-        <v>44684</v>
+        <v>44675</v>
       </c>
       <c r="D22" s="1">
-        <v>44684</v>
+        <v>44682</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>9</v>
@@ -1741,10 +1749,10 @@
         <v>55</v>
       </c>
       <c r="C23" s="1">
-        <v>44686</v>
+        <v>44684</v>
       </c>
       <c r="D23" s="1">
-        <v>44686</v>
+        <v>44684</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>9</v>
@@ -1754,11 +1762,17 @@
       <c r="A24" t="s">
         <v>56</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>20</v>
+      <c r="C24" s="1">
+        <v>44686</v>
+      </c>
+      <c r="D24" s="1">
+        <v>44686</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1768,14 +1782,8 @@
       <c r="B25" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="1">
-        <v>44819</v>
-      </c>
-      <c r="D25" s="1">
-        <v>44826</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>9</v>
+      <c r="G25" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1786,10 +1794,13 @@
         <v>61</v>
       </c>
       <c r="C26" s="1">
-        <v>44776</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>25</v>
+        <v>44819</v>
+      </c>
+      <c r="D26" s="1">
+        <v>44826</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1800,13 +1811,10 @@
         <v>63</v>
       </c>
       <c r="C27" s="1">
-        <v>44772</v>
-      </c>
-      <c r="D27" s="1">
-        <v>44775</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>9</v>
+        <v>44776</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1816,8 +1824,14 @@
       <c r="B28" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>20</v>
+      <c r="C28" s="1">
+        <v>44772</v>
+      </c>
+      <c r="D28" s="1">
+        <v>44775</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1827,10 +1841,8 @@
       <c r="B29" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
       <c r="G29" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1840,14 +1852,10 @@
       <c r="B30" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="1">
-        <v>44803</v>
-      </c>
-      <c r="D30" s="1">
-        <v>44803</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>9</v>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="G30" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1858,10 +1866,10 @@
         <v>71</v>
       </c>
       <c r="C31" s="1">
-        <v>44686</v>
+        <v>44803</v>
       </c>
       <c r="D31" s="1">
-        <v>44687</v>
+        <v>44803</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>9</v>
@@ -1875,10 +1883,10 @@
         <v>73</v>
       </c>
       <c r="C32" s="1">
-        <v>44695</v>
+        <v>44686</v>
       </c>
       <c r="D32" s="1">
-        <v>44703</v>
+        <v>44687</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>9</v>
@@ -1891,8 +1899,14 @@
       <c r="B33" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>20</v>
+      <c r="C33" s="1">
+        <v>44695</v>
+      </c>
+      <c r="D33" s="1">
+        <v>44703</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1902,14 +1916,8 @@
       <c r="B34" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="1">
-        <v>44725</v>
-      </c>
-      <c r="D34" s="1">
-        <v>44726</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>9</v>
+      <c r="G34" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1920,10 +1928,10 @@
         <v>79</v>
       </c>
       <c r="C35" s="1">
-        <v>44728</v>
+        <v>44725</v>
       </c>
       <c r="D35" s="1">
-        <v>44745</v>
+        <v>44726</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>9</v>
@@ -1937,10 +1945,10 @@
         <v>81</v>
       </c>
       <c r="C36" s="1">
-        <v>44752</v>
+        <v>44728</v>
       </c>
       <c r="D36" s="1">
-        <v>44760</v>
+        <v>44745</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>9</v>
@@ -1954,10 +1962,10 @@
         <v>83</v>
       </c>
       <c r="C37" s="1">
-        <v>44718</v>
+        <v>44752</v>
       </c>
       <c r="D37" s="1">
-        <v>44721</v>
+        <v>44760</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>9</v>
@@ -1970,8 +1978,14 @@
       <c r="B38" t="s">
         <v>85</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>20</v>
+      <c r="C38" s="1">
+        <v>44718</v>
+      </c>
+      <c r="D38" s="1">
+        <v>44721</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1981,14 +1995,8 @@
       <c r="B39" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="1">
-        <v>44722</v>
-      </c>
-      <c r="D39" s="1">
-        <v>44722</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>9</v>
+      <c r="G39" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1999,10 +2007,10 @@
         <v>89</v>
       </c>
       <c r="C40" s="1">
-        <v>44688</v>
+        <v>44722</v>
       </c>
       <c r="D40" s="1">
-        <v>44693</v>
+        <v>44722</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>9</v>
@@ -2016,10 +2024,10 @@
         <v>91</v>
       </c>
       <c r="C41" s="1">
-        <v>44725</v>
+        <v>44688</v>
       </c>
       <c r="D41" s="1">
-        <v>44725</v>
+        <v>44693</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>9</v>
@@ -2033,10 +2041,10 @@
         <v>93</v>
       </c>
       <c r="C42" s="1">
-        <v>44688</v>
+        <v>44725</v>
       </c>
       <c r="D42" s="1">
-        <v>44693</v>
+        <v>44725</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>9</v>
@@ -2050,10 +2058,10 @@
         <v>95</v>
       </c>
       <c r="C43" s="1">
-        <v>44725</v>
+        <v>44688</v>
       </c>
       <c r="D43" s="1">
-        <v>44725</v>
+        <v>44693</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>9</v>
@@ -2066,8 +2074,14 @@
       <c r="B44" t="s">
         <v>97</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>20</v>
+      <c r="C44" s="1">
+        <v>44725</v>
+      </c>
+      <c r="D44" s="1">
+        <v>44725</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2077,14 +2091,8 @@
       <c r="B45" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="1">
-        <v>44799</v>
-      </c>
-      <c r="D45" s="1">
-        <v>44803</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>9</v>
+      <c r="G45" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2095,10 +2103,10 @@
         <v>101</v>
       </c>
       <c r="C46" s="1">
-        <v>44804</v>
+        <v>44799</v>
       </c>
       <c r="D46" s="1">
-        <v>44813</v>
+        <v>44803</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>9</v>
@@ -2112,10 +2120,10 @@
         <v>103</v>
       </c>
       <c r="C47" s="1">
-        <v>44725</v>
+        <v>44804</v>
       </c>
       <c r="D47" s="1">
-        <v>44725</v>
+        <v>44813</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>9</v>
@@ -2128,8 +2136,25 @@
       <c r="B48" t="s">
         <v>105</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>20</v>
+      <c r="C48" s="1">
+        <v>44725</v>
+      </c>
+      <c r="D48" s="1">
+        <v>44725</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
   <si>
     <t>组件名称</t>
   </si>
@@ -276,7 +276,7 @@
     <t>弹窗</t>
   </si>
   <si>
-    <t>BsNotification</t>
+    <t>BsToast</t>
   </si>
   <si>
     <t>消息通知</t>
@@ -347,10 +347,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -375,29 +375,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,9 +398,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,13 +432,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -451,6 +452,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -459,16 +475,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,38 +505,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,25 +546,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,73 +690,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,67 +714,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,17 +728,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,24 +752,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -787,6 +763,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -808,15 +793,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -825,151 +801,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -985,54 +985,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1299,20 +1299,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
   <cols>
     <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="20.0916666666667" customWidth="1"/>
+    <col min="2" max="2" width="20.0892857142857" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
@@ -1995,8 +1995,11 @@
       <c r="B39" t="s">
         <v>87</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>22</v>
+      <c r="C39" s="1">
+        <v>44827</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:7">

--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12680"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="108">
   <si>
     <t>组件名称</t>
   </si>
@@ -347,10 +347,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -375,16 +375,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,30 +411,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,6 +424,13 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -452,8 +451,40 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,16 +498,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,36 +518,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -546,13 +546,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,157 +714,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,11 +728,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,6 +758,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -763,15 +787,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,6 +808,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -801,175 +825,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -985,54 +985,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1299,7 +1299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K49"/>
   <sheetViews>
@@ -1309,10 +1309,10 @@
       <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="20.0892857142857" customWidth="1"/>
+    <col min="2" max="2" width="20.0916666666667" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
@@ -1998,8 +1998,11 @@
       <c r="C39" s="1">
         <v>44827</v>
       </c>
-      <c r="G39" s="5" t="s">
-        <v>27</v>
+      <c r="D39" s="1">
+        <v>44829</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:7">

--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -534,13 +534,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,7 +945,7 @@
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -980,8 +980,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1306,7 +1306,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1480,7 +1480,7 @@
       <c r="G8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1523,7 +1523,7 @@
       <c r="G10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1782,8 +1782,11 @@
       <c r="B25" t="s">
         <v>59</v>
       </c>
+      <c r="C25" s="1">
+        <v>44832</v>
+      </c>
       <c r="G25" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1813,7 +1816,7 @@
       <c r="C27" s="1">
         <v>44776</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1841,7 +1844,7 @@
       <c r="B29" t="s">
         <v>67</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1854,7 +1857,7 @@
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1916,7 +1919,7 @@
       <c r="B34" t="s">
         <v>77</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2097,7 +2100,7 @@
       <c r="B45" t="s">
         <v>99</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G45" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2159,7 +2162,7 @@
       <c r="B49" t="s">
         <v>107</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G49" s="5" t="s">
         <v>22</v>
       </c>
     </row>

--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="13320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
   <si>
     <t>组件名称</t>
   </si>
@@ -348,9 +348,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -376,9 +376,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -389,23 +404,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,23 +427,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -458,11 +458,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -476,7 +475,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,21 +484,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,6 +502,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -546,13 +546,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,157 +702,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,6 +725,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -758,24 +776,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -787,6 +787,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,167 +820,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -985,54 +985,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1299,7 +1299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:K49"/>
   <sheetViews>
@@ -1309,10 +1309,10 @@
       <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
   <cols>
     <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="20.0916666666667" customWidth="1"/>
+    <col min="2" max="2" width="20.0892857142857" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
@@ -1785,8 +1785,11 @@
       <c r="C25" s="1">
         <v>44832</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>27</v>
+      <c r="D25" s="1">
+        <v>44870</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:7">

--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -347,10 +347,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -383,22 +383,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,23 +426,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,8 +466,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,7 +476,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,14 +490,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -497,7 +498,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,9 +512,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,187 +534,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,30 +737,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -776,6 +752,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -787,17 +772,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -819,154 +793,180 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -980,8 +980,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1306,7 +1306,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45:G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
@@ -1480,7 +1480,7 @@
       <c r="G8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1523,7 +1523,7 @@
       <c r="G10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1819,8 +1819,11 @@
       <c r="C27" s="1">
         <v>44776</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>27</v>
+      <c r="D27" s="1">
+        <v>44878</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1847,7 +1850,7 @@
       <c r="B29" t="s">
         <v>67</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1860,7 +1863,7 @@
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1922,7 +1925,7 @@
       <c r="B34" t="s">
         <v>77</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2103,7 +2106,7 @@
       <c r="B45" t="s">
         <v>99</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2165,7 +2168,7 @@
       <c r="B49" t="s">
         <v>107</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="4" t="s">
         <v>22</v>
       </c>
     </row>

--- a/组件开发任务表.xlsx
+++ b/组件开发任务表.xlsx
@@ -348,9 +348,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -383,7 +383,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,36 +408,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -468,7 +453,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,7 +498,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,35 +518,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -546,25 +546,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,7 +618,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,13 +696,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,115 +714,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,6 +738,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -752,11 +785,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,21 +815,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -801,172 +825,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1306,7 +1306,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45:G45"/>
+      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
@@ -2168,8 +2168,14 @@
       <c r="B49" t="s">
         <v>107</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>22</v>
+      <c r="C49" s="1">
+        <v>44878</v>
+      </c>
+      <c r="D49" s="1">
+        <v>44878</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
